--- a/new_inputs/EfficacyData0625.xlsx
+++ b/new_inputs/EfficacyData0625.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A55A7B-6BCC-48C7-BE90-9C08BAC374DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D09AD6-CD3B-47E2-8173-C769D5274428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EfficacyData5" sheetId="1" r:id="rId1"/>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="L11">
-        <v>0.54169999999999996</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="M11">
         <v>30</v>
@@ -2022,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>0.4637</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="M15">
         <v>30</v>
@@ -3086,7 +3086,7 @@
         <v>14</v>
       </c>
       <c r="L34">
-        <v>0.2011</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M34">
         <v>30</v>
@@ -3142,7 +3142,8 @@
         <v>14</v>
       </c>
       <c r="L35">
-        <v>0.23980000000000001</v>
+        <f>0.944*0.122</f>
+        <v>0.11516799999999999</v>
       </c>
       <c r="M35">
         <v>30</v>

--- a/new_inputs/EfficacyData0625.xlsx
+++ b/new_inputs/EfficacyData0625.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D09AD6-CD3B-47E2-8173-C769D5274428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5ADEFD-855D-4FBC-86BE-C7DD101949C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EfficacyData5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EfficacyData5!$A$1:$R$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EfficacyData5!$A$1:$R$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="99">
   <si>
     <t>NCD</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Cardiovascular, respiratory, and metabolic diseases</t>
   </si>
   <si>
-    <t>Early detection and treatment of early-stage cervical cancer</t>
-  </si>
-  <si>
-    <t>Treatment of cervical cancer</t>
-  </si>
-  <si>
     <t>Cervical cancer</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Other cardiomyopathy</t>
   </si>
   <si>
-    <t>Opportunistic screening for cervical cancer using visual inspection or HPV DNA testing and treatment of precancerous lesions with cryotherapy</t>
-  </si>
-  <si>
     <t>Cervical cancer screening and treatment</t>
   </si>
   <si>
@@ -337,6 +328,9 @@
   </si>
   <si>
     <t>Trans fat policy</t>
+  </si>
+  <si>
+    <t>Screening and treatment of early-stage cervical cancer</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1256,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1273,13 +1267,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1323,19 +1317,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1362,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
@@ -1379,25 +1373,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1418,7 +1412,7 @@
         <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -1435,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>97</v>
-      </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -1474,13 +1468,13 @@
         <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1491,28 +1485,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -1530,13 +1524,13 @@
         <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1547,28 +1541,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1586,13 +1580,13 @@
         <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1603,28 +1597,28 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1642,13 +1636,13 @@
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1659,28 +1653,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1698,13 +1692,13 @@
         <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1715,28 +1709,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1754,13 +1748,13 @@
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -1771,28 +1765,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1810,13 +1804,13 @@
         <v>16</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -1827,28 +1821,28 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1866,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -1883,28 +1877,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1922,13 +1916,13 @@
         <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
         <v>23</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -1939,28 +1933,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
@@ -1978,13 +1972,13 @@
         <v>16</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
         <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -1995,28 +1989,28 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
@@ -2034,13 +2028,13 @@
         <v>16</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -2051,28 +2045,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
@@ -2090,13 +2084,13 @@
         <v>16</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="s">
         <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -2107,28 +2101,28 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
@@ -2146,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
         <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -2163,28 +2157,28 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
@@ -2202,13 +2196,13 @@
         <v>16</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s">
         <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -2219,28 +2213,28 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
@@ -2258,13 +2252,13 @@
         <v>16</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
         <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -2275,28 +2269,28 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
@@ -2314,107 +2308,107 @@
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
         <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
       </c>
       <c r="L21">
-        <v>0.83</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
         <v>14</v>
       </c>
       <c r="L22">
-        <v>8.1600000000000006E-2</v>
+        <v>0.1845</v>
       </c>
       <c r="M22">
         <v>30</v>
@@ -2426,13 +2420,13 @@
         <v>16</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="s">
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
@@ -2440,37 +2434,37 @@
         <v>3.2</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
       </c>
       <c r="L23">
-        <v>0.1845</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="M23">
         <v>30</v>
@@ -2482,13 +2476,13 @@
         <v>16</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="s">
         <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -2496,31 +2490,31 @@
         <v>3.2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
         <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -2529,7 +2523,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
@@ -2538,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="s">
         <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -2552,31 +2546,31 @@
         <v>3.2</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
@@ -2585,7 +2579,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
@@ -2594,13 +2588,13 @@
         <v>16</v>
       </c>
       <c r="P25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
         <v>23</v>
       </c>
       <c r="R25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -2608,31 +2602,31 @@
         <v>3.2</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
@@ -2641,7 +2635,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
         <v>15</v>
@@ -2650,154 +2644,154 @@
         <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="s">
         <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
       <c r="L27">
-        <v>0.73799999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
       </c>
       <c r="L28">
-        <v>0.17</v>
+        <v>0.30380000000000001</v>
       </c>
       <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>15</v>
       </c>
       <c r="O28" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
@@ -2806,10 +2800,10 @@
         <v>14</v>
       </c>
       <c r="L29">
-        <v>0.30380000000000001</v>
+        <v>0.2878</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
         <v>15</v>
@@ -2818,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="P29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
         <v>23</v>
@@ -2829,114 +2823,114 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
       </c>
       <c r="L30">
-        <v>0.2878</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="M30">
         <v>30</v>
       </c>
-      <c r="N30" t="s">
-        <v>15</v>
+      <c r="N30">
+        <v>80</v>
       </c>
       <c r="O30" t="s">
         <v>16</v>
       </c>
       <c r="P30" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="Q30" t="s">
         <v>23</v>
       </c>
       <c r="R30" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
       </c>
       <c r="L31">
-        <v>4.6300000000000001E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>15</v>
       </c>
       <c r="O31" t="s">
         <v>16</v>
       </c>
       <c r="P31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q31" t="s">
         <v>23</v>
       </c>
       <c r="R31" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -2944,28 +2938,28 @@
         <v>4.2</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -2974,10 +2968,10 @@
         <v>14</v>
       </c>
       <c r="L32">
-        <v>2.01E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
         <v>15</v>
@@ -2986,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="P32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q32" t="s">
         <v>23</v>
@@ -2997,63 +2991,63 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
       </c>
       <c r="L33">
-        <v>0.05</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M33">
         <v>30</v>
       </c>
-      <c r="N33" t="s">
-        <v>15</v>
+      <c r="N33">
+        <v>80</v>
       </c>
       <c r="O33" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R33" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3065,13 +3059,13 @@
         <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
@@ -3080,13 +3074,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
       </c>
       <c r="L34">
-        <v>8.4000000000000005E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M34">
         <v>30</v>
@@ -3095,13 +3089,13 @@
         <v>80</v>
       </c>
       <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s">
         <v>28</v>
-      </c>
-      <c r="P34" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>30</v>
       </c>
       <c r="R34" t="s">
         <v>74</v>
@@ -3109,203 +3103,146 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>75</v>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35">
-        <f>0.944*0.122</f>
-        <v>0.11516799999999999</v>
-      </c>
-      <c r="M35">
-        <v>30</v>
-      </c>
-      <c r="N35">
-        <v>80</v>
-      </c>
-      <c r="O35" t="s">
-        <v>16</v>
-      </c>
-      <c r="P35" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>5.6</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R35" xr:uid="{F10C6617-9147-458D-A560-971FCCCAAC65}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R35">
-      <sortCondition ref="A1:A35"/>
+  <autoFilter ref="A1:R34" xr:uid="{F10C6617-9147-458D-A560-971FCCCAAC65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R34">
+      <sortCondition ref="A1:A34"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_inputs/EfficacyData0625.xlsx
+++ b/new_inputs/EfficacyData0625.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5ADEFD-855D-4FBC-86BE-C7DD101949C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715B98B-62CF-4118-8C19-E92BB5646D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2688,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="L27">
-        <v>0.38800000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M27">
         <v>20</v>

--- a/new_inputs/EfficacyData0625.xlsx
+++ b/new_inputs/EfficacyData0625.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Dropbox\NCDs\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715B98B-62CF-4118-8C19-E92BB5646D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E30A04-81DD-4A07-AD5A-93C0B1A9BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EfficacyData5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EfficacyData5!$A$1:$R$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EfficacyData5!$A$1:$R$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="99">
   <si>
     <t>NCD</t>
   </si>
@@ -1178,26 +1178,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="17" max="17" width="19.08984375" customWidth="1"/>
-    <col min="18" max="18" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.2</v>
       </c>
@@ -1288,7 +1290,8 @@
         <v>14</v>
       </c>
       <c r="L2">
-        <v>0.42</v>
+        <f>0.42*0.41</f>
+        <v>0.17219999999999999</v>
       </c>
       <c r="M2">
         <v>30</v>
@@ -1309,12 +1312,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1335,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1344,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1365,18 +1368,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.14</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>83</v>
@@ -1388,19 +1391,19 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4">
-        <v>0.221</v>
+        <v>0.16</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1418,15 +1421,15 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -1444,7 +1447,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
         <v>93</v>
@@ -1477,18 +1480,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>83</v>
@@ -1500,10 +1503,10 @@
         <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -1512,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="L6">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1533,12 +1536,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -1556,7 +1559,7 @@
         <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>58</v>
@@ -1589,18 +1592,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>83</v>
@@ -1612,19 +1615,19 @@
         <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8">
-        <v>0.28000000000000003</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="M8">
         <v>30</v>
@@ -1642,15 +1645,15 @@
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1668,10 +1671,10 @@
         <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -1680,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="L9">
-        <v>0.57750000000000001</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="M9">
         <v>30</v>
@@ -1698,15 +1701,15 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.4</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1724,7 +1727,7 @@
         <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
@@ -1736,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="L10">
-        <v>0.54169999999999996</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="M10">
         <v>30</v>
@@ -1754,15 +1757,15 @@
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.4</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -1780,10 +1783,10 @@
         <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -1792,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="L11">
-        <v>0.48499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="M11">
         <v>30</v>
@@ -1810,21 +1813,21 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>83</v>
@@ -1839,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -1848,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="L12">
-        <v>0.47</v>
+        <v>8.14E-2</v>
       </c>
       <c r="M12">
         <v>30</v>
@@ -1866,21 +1869,21 @@
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>83</v>
@@ -1904,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>8.14E-2</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="M13">
         <v>30</v>
@@ -1925,12 +1928,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.6</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1948,10 +1951,10 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -1960,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>0.58220000000000005</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="M14">
         <v>30</v>
@@ -1978,21 +1981,21 @@
         <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>83</v>
@@ -2004,10 +2007,10 @@
         <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -2016,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>0.23200000000000001</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="M15">
         <v>30</v>
@@ -2034,15 +2037,15 @@
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -2063,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -2072,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="L16">
-        <v>9.2399999999999996E-2</v>
+        <v>0.26960000000000001</v>
       </c>
       <c r="M16">
         <v>30</v>
@@ -2090,15 +2093,15 @@
         <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.7</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -2116,10 +2119,10 @@
         <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -2128,10 +2131,10 @@
         <v>14</v>
       </c>
       <c r="L17">
-        <v>0.26960000000000001</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
         <v>15</v>
@@ -2149,12 +2152,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.7</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -2172,7 +2175,7 @@
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
@@ -2187,7 +2190,7 @@
         <v>0.53590000000000004</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
@@ -2205,12 +2208,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.7</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -2228,7 +2231,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
@@ -2243,7 +2246,7 @@
         <v>0.53590000000000004</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
         <v>15</v>
@@ -2261,18 +2264,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>83</v>
@@ -2284,10 +2287,10 @@
         <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -2296,10 +2299,11 @@
         <v>14</v>
       </c>
       <c r="L20">
-        <v>0.53590000000000004</v>
+        <f>0.76*0.37</f>
+        <v>0.28120000000000001</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
         <v>15</v>
@@ -2308,27 +2312,27 @@
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="s">
         <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>83</v>
@@ -2352,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="L21">
-        <v>8.1600000000000006E-2</v>
+        <v>0.1845</v>
       </c>
       <c r="M21">
         <v>30</v>
@@ -2373,12 +2377,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.2</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2399,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -2408,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="L22">
-        <v>0.1845</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="M22">
         <v>30</v>
@@ -2426,15 +2430,15 @@
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.2</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2452,10 +2456,10 @@
         <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
@@ -2467,7 +2471,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
         <v>15</v>
@@ -2485,12 +2489,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.2</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2508,7 +2512,7 @@
         <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
@@ -2523,7 +2527,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
@@ -2541,12 +2545,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.2</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2564,7 +2568,7 @@
         <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
@@ -2579,7 +2583,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
@@ -2597,18 +2601,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>83</v>
@@ -2620,51 +2624,51 @@
         <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
       </c>
       <c r="L26">
-        <v>0.73799999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>80</v>
       </c>
       <c r="O26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>83</v>
@@ -2679,42 +2683,43 @@
         <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
       <c r="L27">
-        <v>0.91</v>
+        <f>0.62*0.97</f>
+        <v>0.60139999999999993</v>
       </c>
       <c r="M27">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P27" t="s">
         <v>27</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.4</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -2735,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -2744,10 +2749,11 @@
         <v>14</v>
       </c>
       <c r="L28">
-        <v>0.30380000000000001</v>
+        <f>0.78*0.41*0.9</f>
+        <v>0.28781999999999996</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
         <v>15</v>
@@ -2765,18 +2771,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>83</v>
@@ -2791,48 +2797,48 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
       </c>
       <c r="L29">
-        <v>0.2878</v>
+        <v>3.1477749999999999E-2</v>
       </c>
       <c r="M29">
         <v>30</v>
       </c>
-      <c r="N29" t="s">
-        <v>15</v>
+      <c r="N29">
+        <v>80</v>
       </c>
       <c r="O29" t="s">
         <v>16</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="Q29" t="s">
         <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>83</v>
@@ -2847,22 +2853,23 @@
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
       </c>
       <c r="L30">
-        <v>4.6300000000000001E-2</v>
+        <f>0.106*0.03</f>
+        <v>3.1799999999999997E-3</v>
       </c>
       <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>15</v>
       </c>
       <c r="O30" t="s">
         <v>16</v>
@@ -2874,15 +2881,15 @@
         <v>23</v>
       </c>
       <c r="R30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.2</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -2903,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
@@ -2912,10 +2919,11 @@
         <v>14</v>
       </c>
       <c r="L31">
-        <v>2.01E-2</v>
+        <f>0.106*0.41*0.1</f>
+        <v>4.346E-3</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N31" t="s">
         <v>15</v>
@@ -2933,18 +2941,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>83</v>
@@ -2959,48 +2967,48 @@
         <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
       </c>
       <c r="L32">
-        <v>0.05</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M32">
         <v>30</v>
       </c>
-      <c r="N32" t="s">
-        <v>15</v>
+      <c r="N32">
+        <v>80</v>
       </c>
       <c r="O32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P32" t="s">
         <v>66</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>83</v>
@@ -3015,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
         <v>25</v>
@@ -3024,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="L33">
-        <v>8.1000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M33">
         <v>30</v>
@@ -3033,7 +3041,7 @@
         <v>80</v>
       </c>
       <c r="O33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P33" t="s">
         <v>66</v>
@@ -3042,21 +3050,21 @@
         <v>28</v>
       </c>
       <c r="R33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>72</v>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
@@ -3080,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="L34">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>30</v>
@@ -3101,148 +3109,290 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>80</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>80</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>28</v>
+      </c>
+      <c r="R36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>80</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>80</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>5.6</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>82</v>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>80</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R34" xr:uid="{F10C6617-9147-458D-A560-971FCCCAAC65}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R34">
-      <sortCondition ref="A1:A34"/>
+  <autoFilter ref="A1:R33" xr:uid="{F10C6617-9147-458D-A560-971FCCCAAC65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R33">
+      <sortCondition ref="A1:A33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_inputs/EfficacyData0625.xlsx
+++ b/new_inputs/EfficacyData0625.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Dropbox\NCDs\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E30A04-81DD-4A07-AD5A-93C0B1A9BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59793E1B-2088-4165-A1E1-DAE08508A08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EfficacyData5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EfficacyData5!$A$1:$R$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EfficacyData5!$A$1:$R$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="99">
   <si>
     <t>NCD</t>
   </si>
@@ -1178,28 +1178,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:S40"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="52.26953125" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" customWidth="1"/>
+    <col min="18" max="18" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.2</v>
       </c>
@@ -1290,8 +1290,7 @@
         <v>14</v>
       </c>
       <c r="L2">
-        <f>0.42*0.41</f>
-        <v>0.17219999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="M2">
         <v>30</v>
@@ -1312,7 +1311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.14</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2999999999999998</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.2999999999999998</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -1592,18 +1591,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>83</v>
@@ -1627,10 +1626,11 @@
         <v>14</v>
       </c>
       <c r="L8">
-        <v>0.57750000000000001</v>
+        <f>0.25*0.15</f>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
@@ -1648,12 +1648,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1671,10 +1671,10 @@
         <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -1683,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="L9">
-        <v>0.54169999999999996</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="M9">
         <v>30</v>
@@ -1701,15 +1701,15 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.4</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1727,7 +1727,7 @@
         <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
@@ -1739,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="L10">
-        <v>0.48499999999999999</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="M10">
         <v>30</v>
@@ -1757,15 +1757,15 @@
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.4</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -1783,10 +1783,10 @@
         <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -1795,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="L11">
-        <v>0.47</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="M11">
         <v>30</v>
@@ -1813,21 +1813,21 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>83</v>
@@ -1842,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -1851,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="L12">
-        <v>8.14E-2</v>
+        <v>0.47</v>
       </c>
       <c r="M12">
         <v>30</v>
@@ -1869,21 +1869,21 @@
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>83</v>
@@ -1907,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>0.58220000000000005</v>
+        <v>8.14E-2</v>
       </c>
       <c r="M13">
         <v>30</v>
@@ -1928,12 +1928,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.6</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1951,10 +1951,10 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -1963,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>0.23200000000000001</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="M14">
         <v>30</v>
@@ -1981,21 +1981,21 @@
         <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>83</v>
@@ -2007,10 +2007,10 @@
         <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -2019,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>9.2399999999999996E-2</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="M15">
         <v>30</v>
@@ -2037,15 +2037,15 @@
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.7</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -2066,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -2075,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="L16">
-        <v>0.26960000000000001</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="M16">
         <v>30</v>
@@ -2093,15 +2093,15 @@
         <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.7</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -2119,10 +2119,10 @@
         <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -2131,10 +2131,10 @@
         <v>14</v>
       </c>
       <c r="L17">
-        <v>0.53590000000000004</v>
+        <v>0.26960000000000001</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N17" t="s">
         <v>15</v>
@@ -2152,12 +2152,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.7</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -2175,7 +2175,7 @@
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
@@ -2190,7 +2190,7 @@
         <v>0.53590000000000004</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
@@ -2208,12 +2208,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.7</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -2231,7 +2231,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
@@ -2246,7 +2246,7 @@
         <v>0.53590000000000004</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
         <v>15</v>
@@ -2264,18 +2264,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>83</v>
@@ -2287,10 +2287,10 @@
         <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -2299,65 +2299,65 @@
         <v>14</v>
       </c>
       <c r="L20">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>3.1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21">
         <f>0.76*0.37</f>
         <v>0.28120000000000001</v>
       </c>
-      <c r="M20">
-        <v>30</v>
-      </c>
-      <c r="N20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3.2</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21">
-        <v>0.1845</v>
-      </c>
       <c r="M21">
         <v>30</v>
       </c>
@@ -2377,12 +2377,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.2</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2403,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -2412,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="L22">
-        <v>0.73799999999999999</v>
+        <v>0.1845</v>
       </c>
       <c r="M22">
         <v>30</v>
@@ -2430,15 +2430,15 @@
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.2</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2456,10 +2456,10 @@
         <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
@@ -2471,7 +2471,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N23" t="s">
         <v>15</v>
@@ -2489,12 +2489,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.2</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2512,7 +2512,7 @@
         <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
@@ -2527,7 +2527,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
@@ -2545,12 +2545,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.2</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2568,7 +2568,7 @@
         <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
@@ -2583,7 +2583,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
@@ -2601,18 +2601,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>83</v>
@@ -2624,51 +2624,51 @@
         <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
       </c>
       <c r="L26">
-        <v>0.91</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>15</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
       </c>
       <c r="Q26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>83</v>
@@ -2683,162 +2683,162 @@
         <v>20</v>
       </c>
       <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>0.91</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3.4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
         <v>35</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>22</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27">
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28">
         <f>0.62*0.97</f>
         <v>0.60139999999999993</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>0</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N28" t="s">
         <v>15</v>
       </c>
-      <c r="O27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q28" t="s">
         <v>23</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>3.4</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="E29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J29" t="s">
         <v>22</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28">
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29">
         <f>0.78*0.41*0.9</f>
         <v>0.28781999999999996</v>
       </c>
-      <c r="M28">
-        <v>30</v>
-      </c>
-      <c r="N28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29">
-        <v>3.1477749999999999E-2</v>
-      </c>
       <c r="M29">
         <v>30</v>
       </c>
-      <c r="N29">
-        <v>80</v>
+      <c r="N29" t="s">
+        <v>15</v>
       </c>
       <c r="O29" t="s">
         <v>16</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
         <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>83</v>
@@ -2853,162 +2853,162 @@
         <v>20</v>
       </c>
       <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>3.1477749999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>4.2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
         <v>35</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J31" t="s">
         <v>22</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30">
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31">
         <f>0.106*0.03</f>
         <v>3.1799999999999997E-3</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>0</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N31" t="s">
         <v>15</v>
       </c>
-      <c r="O30" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q31" t="s">
         <v>23</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>4.2</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s">
         <v>20</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J32" t="s">
         <v>22</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31">
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32">
         <f>0.106*0.41*0.1</f>
         <v>4.346E-3</v>
       </c>
-      <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31" t="s">
-        <v>15</v>
-      </c>
-      <c r="O31" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4.3</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32">
-        <v>8.1000000000000003E-2</v>
-      </c>
       <c r="M32">
         <v>30</v>
       </c>
-      <c r="N32">
-        <v>80</v>
+      <c r="N32" t="s">
+        <v>15</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P32" t="s">
         <v>66</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>83</v>
@@ -3023,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
         <v>25</v>
@@ -3032,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="L33">
-        <v>9.2999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M33">
         <v>30</v>
@@ -3041,7 +3041,7 @@
         <v>80</v>
       </c>
       <c r="O33" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P33" t="s">
         <v>66</v>
@@ -3050,21 +3050,21 @@
         <v>28</v>
       </c>
       <c r="R33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>87</v>
+      <c r="C34" t="s">
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
@@ -3088,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M34">
         <v>30</v>
@@ -3109,18 +3109,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -3165,18 +3165,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -3221,18 +3221,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>83</v>
@@ -3277,18 +3277,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>83</v>
@@ -3333,18 +3333,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
@@ -3389,10 +3389,66 @@
         <v>74</v>
       </c>
     </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>5.6</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <v>80</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R33" xr:uid="{F10C6617-9147-458D-A560-971FCCCAAC65}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R33">
-      <sortCondition ref="A1:A33"/>
+  <autoFilter ref="A1:R34" xr:uid="{F10C6617-9147-458D-A560-971FCCCAAC65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R34">
+      <sortCondition ref="A1:A34"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
